--- a/Planning d'intervention Maintenance CENSURE POUR TESTS.xlsx
+++ b/Planning d'intervention Maintenance CENSURE POUR TESTS.xlsx
@@ -5,10 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1 Dossiers de Nicolas\Etudes EPF\Swish\Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1 Dossiers de Nicolas\Etudes EPF\Swish\Code\BotMail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA275BF7-ACA0-4B39-9AC6-3D3B57FE5471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37109655-2E00-4BCC-AAD0-ED85958CB9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="3ObO7lhbQChKT/Xtw/BLX4lNVq3Cq/6ocFooM4xCcLvSYtChDMF3f+oZspex3tZgOhs11Rh4Nr9DG6JRfkN4cg==" workbookSaltValue="lNSrrGt5psh5kPE8rpctDg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{16EB6ED4-2E25-4642-8164-370FEBA71D91}"/>
   </bookViews>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="171">
   <si>
     <t>Entreprise</t>
   </si>
@@ -584,6 +585,18 @@
     <t>Monsieur AB
 01.02.04.03.01
 monsieur.ab@mail.com</t>
+  </si>
+  <si>
+    <t>ENTREPRISE TEST</t>
+  </si>
+  <si>
+    <t>1 Borne double</t>
+  </si>
+  <si>
+    <t>12 Avenue des Champs Élysées</t>
+  </si>
+  <si>
+    <t>Anonyme anonyme@mail.fr</t>
   </si>
 </sst>
 </file>
@@ -1118,7 +1131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1346,6 +1359,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1867,35 +1904,36 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22DEE988-DFA1-4AF1-B34A-86F8B00D6D5B}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:V32"/>
+  <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="40.109375" customWidth="1"/>
-    <col min="10" max="12" width="24.6640625" customWidth="1"/>
-    <col min="13" max="14" width="24.6640625" style="45" customWidth="1"/>
-    <col min="15" max="15" width="21.33203125" style="46" customWidth="1"/>
-    <col min="16" max="17" width="21.33203125" style="47" customWidth="1"/>
-    <col min="18" max="18" width="20.44140625" style="48" customWidth="1"/>
-    <col min="19" max="20" width="20.44140625" style="49" customWidth="1"/>
-    <col min="21" max="21" width="20.88671875" style="50" customWidth="1"/>
-    <col min="22" max="22" width="2.44140625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="24" style="86" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" style="86" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" style="86" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" style="86" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.44140625" style="86" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" style="86" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28" style="86" customWidth="1"/>
+    <col min="8" max="8" width="18" style="86" customWidth="1"/>
+    <col min="9" max="9" width="40.109375" style="86" customWidth="1"/>
+    <col min="10" max="12" width="24.6640625" style="86" customWidth="1"/>
+    <col min="13" max="14" width="24.6640625" style="87" customWidth="1"/>
+    <col min="15" max="15" width="21.33203125" style="88" customWidth="1"/>
+    <col min="16" max="17" width="21.33203125" style="89" customWidth="1"/>
+    <col min="18" max="18" width="20.44140625" style="90" customWidth="1"/>
+    <col min="19" max="20" width="20.44140625" style="91" customWidth="1"/>
+    <col min="21" max="21" width="20.88671875" style="92" customWidth="1"/>
+    <col min="22" max="22" width="2.44140625" style="93" customWidth="1"/>
+    <col min="23" max="16384" width="11.5546875" style="86"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" customFormat="1" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16"/>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -1908,15 +1946,25 @@
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
       <c r="L1" s="16"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="16"/>
+    </row>
+    <row r="2" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="51"/>
       <c r="B2" s="51"/>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96"/>
       <c r="F2" s="52"/>
       <c r="G2" s="51"/>
       <c r="H2" s="51"/>
@@ -1933,8 +1981,9 @@
       <c r="S2" s="57"/>
       <c r="T2" s="57"/>
       <c r="U2" s="58"/>
-    </row>
-    <row r="3" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="V2" s="16"/>
+    </row>
+    <row r="3" spans="1:22" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="78" t="s">
         <v>0</v>
       </c>
@@ -1998,8 +2047,9 @@
       <c r="U3" s="85" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="V3" s="16"/>
+    </row>
+    <row r="4" spans="1:22" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="59" t="s">
         <v>80</v>
       </c>
@@ -2041,19 +2091,20 @@
         <v>44922</v>
       </c>
       <c r="P4" s="66">
-        <f t="shared" ref="P4:P32" si="1">DATE(YEAR(J4)+2,MONTH(J4),DAY(J4))</f>
+        <f t="shared" ref="P4:P33" si="1">DATE(YEAR(J4)+2,MONTH(J4),DAY(J4))</f>
         <v>45287</v>
       </c>
       <c r="Q4" s="66"/>
       <c r="R4" s="67"/>
       <c r="S4" s="68">
-        <f t="shared" ref="S4:S32" si="2">DATE(YEAR(J4)+3,MONTH(J4),DAY(J4))</f>
+        <f t="shared" ref="S4:S33" si="2">DATE(YEAR(J4)+3,MONTH(J4),DAY(J4))</f>
         <v>45653</v>
       </c>
       <c r="T4" s="68"/>
       <c r="U4" s="69"/>
-    </row>
-    <row r="5" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="V4" s="16"/>
+    </row>
+    <row r="5" spans="1:22" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="59" t="s">
         <v>81</v>
       </c>
@@ -2106,8 +2157,9 @@
       </c>
       <c r="T5" s="68"/>
       <c r="U5" s="69"/>
-    </row>
-    <row r="6" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="V5" s="16"/>
+    </row>
+    <row r="6" spans="1:22" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
         <v>82</v>
       </c>
@@ -2158,8 +2210,9 @@
       </c>
       <c r="T6" s="68"/>
       <c r="U6" s="69"/>
-    </row>
-    <row r="7" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="V6" s="16"/>
+    </row>
+    <row r="7" spans="1:22" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="59" t="s">
         <v>83</v>
       </c>
@@ -2212,8 +2265,9 @@
       </c>
       <c r="T7" s="68"/>
       <c r="U7" s="69"/>
-    </row>
-    <row r="8" spans="1:21" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V7" s="16"/>
+    </row>
+    <row r="8" spans="1:22" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="59" t="s">
         <v>84</v>
       </c>
@@ -2246,7 +2300,9 @@
         <f t="shared" si="0"/>
         <v>45077</v>
       </c>
-      <c r="N8" s="64"/>
+      <c r="N8" s="64" t="s">
+        <v>69</v>
+      </c>
       <c r="O8" s="65"/>
       <c r="P8" s="66">
         <f t="shared" si="1"/>
@@ -2260,8 +2316,9 @@
       </c>
       <c r="T8" s="68"/>
       <c r="U8" s="69"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V8" s="16"/>
+    </row>
+    <row r="9" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="59" t="s">
         <v>85</v>
       </c>
@@ -2308,8 +2365,9 @@
       </c>
       <c r="T9" s="68"/>
       <c r="U9" s="69"/>
-    </row>
-    <row r="10" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="V9" s="16"/>
+    </row>
+    <row r="10" spans="1:22" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="59" t="s">
         <v>86</v>
       </c>
@@ -2360,8 +2418,9 @@
         <f>IF(J10="","",DATE(YEAR(R10)+1,MONTH(R10),DAY(R10)))</f>
         <v/>
       </c>
-    </row>
-    <row r="11" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="V10" s="16"/>
+    </row>
+    <row r="11" spans="1:22" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="59" t="s">
         <v>87</v>
       </c>
@@ -2391,7 +2450,7 @@
         <v>12</v>
       </c>
       <c r="M11" s="64">
-        <f t="shared" ref="M11:M32" si="3">DATE(YEAR(J11)+1,MONTH(J11),DAY(J11))</f>
+        <f t="shared" ref="M11:M33" si="3">DATE(YEAR(J11)+1,MONTH(J11),DAY(J11))</f>
         <v>45069</v>
       </c>
       <c r="N11" s="64" t="s">
@@ -2412,8 +2471,9 @@
       </c>
       <c r="T11" s="68"/>
       <c r="U11" s="69"/>
-    </row>
-    <row r="12" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="V11" s="16"/>
+    </row>
+    <row r="12" spans="1:22" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="59" t="s">
         <v>88</v>
       </c>
@@ -2448,7 +2508,9 @@
         <f t="shared" si="3"/>
         <v>45091</v>
       </c>
-      <c r="N12" s="64"/>
+      <c r="N12" s="64" t="s">
+        <v>69</v>
+      </c>
       <c r="O12" s="65"/>
       <c r="P12" s="66">
         <f t="shared" si="1"/>
@@ -2462,8 +2524,9 @@
       </c>
       <c r="T12" s="68"/>
       <c r="U12" s="69"/>
-    </row>
-    <row r="13" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="V12" s="16"/>
+    </row>
+    <row r="13" spans="1:22" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="59" t="s">
         <v>89</v>
       </c>
@@ -2512,8 +2575,9 @@
       </c>
       <c r="T13" s="68"/>
       <c r="U13" s="69"/>
-    </row>
-    <row r="14" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="V13" s="16"/>
+    </row>
+    <row r="14" spans="1:22" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="59" t="s">
         <v>90</v>
       </c>
@@ -2564,8 +2628,9 @@
       </c>
       <c r="T14" s="68"/>
       <c r="U14" s="69"/>
-    </row>
-    <row r="15" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="V14" s="16"/>
+    </row>
+    <row r="15" spans="1:22" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="59" t="s">
         <v>91</v>
       </c>
@@ -2612,8 +2677,9 @@
       </c>
       <c r="T15" s="68"/>
       <c r="U15" s="69"/>
-    </row>
-    <row r="16" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="V15" s="16"/>
+    </row>
+    <row r="16" spans="1:22" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="59" t="s">
         <v>92</v>
       </c>
@@ -2660,8 +2726,9 @@
       </c>
       <c r="T16" s="68"/>
       <c r="U16" s="69"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V16" s="16"/>
+    </row>
+    <row r="17" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="59" t="s">
         <v>93</v>
       </c>
@@ -2708,8 +2775,9 @@
       </c>
       <c r="T17" s="68"/>
       <c r="U17" s="69"/>
-    </row>
-    <row r="18" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="V17" s="16"/>
+    </row>
+    <row r="18" spans="1:22" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="59" t="s">
         <v>94</v>
       </c>
@@ -2756,8 +2824,9 @@
       </c>
       <c r="T18" s="68"/>
       <c r="U18" s="69"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V18" s="16"/>
+    </row>
+    <row r="19" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="59" t="s">
         <v>95</v>
       </c>
@@ -2804,8 +2873,9 @@
       </c>
       <c r="T19" s="68"/>
       <c r="U19" s="69"/>
-    </row>
-    <row r="20" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="V19" s="16"/>
+    </row>
+    <row r="20" spans="1:22" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="59" t="s">
         <v>96</v>
       </c>
@@ -2859,8 +2929,9 @@
         <f>IF(J20="","",DATE(YEAR(R20)+1,MONTH(R20),DAY(R20)))</f>
         <v/>
       </c>
-    </row>
-    <row r="21" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="V20" s="16"/>
+    </row>
+    <row r="21" spans="1:22" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="59" t="s">
         <v>97</v>
       </c>
@@ -2914,8 +2985,9 @@
         <f>IF(J21="","",DATE(YEAR(R21)+1,MONTH(R21),DAY(R21)))</f>
         <v/>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V21" s="16"/>
+    </row>
+    <row r="22" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="59" t="s">
         <v>98</v>
       </c>
@@ -2971,8 +3043,9 @@
         <f>IF(J22="","",DATE(YEAR(R22)+1,MONTH(R22),DAY(R22)))</f>
         <v/>
       </c>
-    </row>
-    <row r="23" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="V22" s="16"/>
+    </row>
+    <row r="23" spans="1:22" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="59" t="s">
         <v>99</v>
       </c>
@@ -3021,8 +3094,9 @@
       </c>
       <c r="T23" s="68"/>
       <c r="U23" s="69"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V23" s="16"/>
+    </row>
+    <row r="24" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="59" t="s">
         <v>100</v>
       </c>
@@ -3069,8 +3143,9 @@
       </c>
       <c r="T24" s="68"/>
       <c r="U24" s="69"/>
-    </row>
-    <row r="25" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="V24" s="16"/>
+    </row>
+    <row r="25" spans="1:22" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="59" t="s">
         <v>101</v>
       </c>
@@ -3117,8 +3192,9 @@
       </c>
       <c r="T25" s="68"/>
       <c r="U25" s="69"/>
-    </row>
-    <row r="26" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="V25" s="16"/>
+    </row>
+    <row r="26" spans="1:22" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="59" t="s">
         <v>102</v>
       </c>
@@ -3165,8 +3241,9 @@
       </c>
       <c r="T26" s="68"/>
       <c r="U26" s="69"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V26" s="16"/>
+    </row>
+    <row r="27" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="59" t="s">
         <v>103</v>
       </c>
@@ -3213,8 +3290,9 @@
       </c>
       <c r="T27" s="68"/>
       <c r="U27" s="69"/>
-    </row>
-    <row r="28" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="V27" s="16"/>
+    </row>
+    <row r="28" spans="1:22" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="59" t="s">
         <v>104</v>
       </c>
@@ -3261,8 +3339,9 @@
       </c>
       <c r="T28" s="68"/>
       <c r="U28" s="69"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V28" s="16"/>
+    </row>
+    <row r="29" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="59" t="s">
         <v>105</v>
       </c>
@@ -3309,8 +3388,9 @@
       </c>
       <c r="T29" s="68"/>
       <c r="U29" s="69"/>
-    </row>
-    <row r="30" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="V29" s="16"/>
+    </row>
+    <row r="30" spans="1:22" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="59" t="s">
         <v>106</v>
       </c>
@@ -3359,8 +3439,9 @@
       </c>
       <c r="T30" s="68"/>
       <c r="U30" s="77"/>
-    </row>
-    <row r="31" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="V30" s="16"/>
+    </row>
+    <row r="31" spans="1:22" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="59" t="s">
         <v>107</v>
       </c>
@@ -3414,8 +3495,9 @@
         <f>IF(J31="","",DATE(YEAR(R31)+1,MONTH(R31),DAY(R31)))</f>
         <v/>
       </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V31" s="16"/>
+    </row>
+    <row r="32" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="59" t="s">
         <v>108</v>
       </c>
@@ -3460,9 +3542,62 @@
       </c>
       <c r="T32" s="68"/>
       <c r="U32" s="77"/>
+      <c r="V32" s="16"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A33" s="59" t="s">
+        <v>167</v>
+      </c>
+      <c r="B33" s="72"/>
+      <c r="C33" s="72">
+        <v>0</v>
+      </c>
+      <c r="D33" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="E33" s="72">
+        <v>52</v>
+      </c>
+      <c r="F33" s="72">
+        <v>50</v>
+      </c>
+      <c r="G33" s="62" t="s">
+        <v>169</v>
+      </c>
+      <c r="H33" s="62">
+        <v>22</v>
+      </c>
+      <c r="I33" s="62" t="s">
+        <v>170</v>
+      </c>
+      <c r="J33" s="73">
+        <v>44730</v>
+      </c>
+      <c r="K33" s="63"/>
+      <c r="L33" s="62">
+        <v>12</v>
+      </c>
+      <c r="M33" s="64">
+        <f t="shared" si="3"/>
+        <v>45095</v>
+      </c>
+      <c r="N33" s="64"/>
+      <c r="O33" s="75"/>
+      <c r="P33" s="66">
+        <f t="shared" si="1"/>
+        <v>45461</v>
+      </c>
+      <c r="Q33" s="66"/>
+      <c r="R33" s="76"/>
+      <c r="S33" s="68">
+        <f t="shared" si="2"/>
+        <v>45826</v>
+      </c>
+      <c r="T33" s="68"/>
+      <c r="U33" s="77"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hbLnOa1THPl6VRDDcvgevOenlotCxX/IUoR4M4tARoeLCyCe5vkrOb4wbxKSIu/QILfKuvYLESkbvVnliWua7Q==" saltValue="o7vtn2dhhnwjcOodTTVXpQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="1">
     <mergeCell ref="C2:E2"/>
   </mergeCells>
@@ -3548,76 +3683,76 @@
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="6"/>
-      <c r="E1" s="89">
+      <c r="E1" s="97">
         <v>2022</v>
       </c>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="91">
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="99">
         <v>2023</v>
       </c>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
-      <c r="W1" s="92"/>
-      <c r="X1" s="92"/>
-      <c r="Y1" s="92"/>
-      <c r="Z1" s="92"/>
-      <c r="AA1" s="92"/>
-      <c r="AB1" s="93"/>
-      <c r="AC1" s="94">
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
+      <c r="X1" s="100"/>
+      <c r="Y1" s="100"/>
+      <c r="Z1" s="100"/>
+      <c r="AA1" s="100"/>
+      <c r="AB1" s="101"/>
+      <c r="AC1" s="102">
         <v>2024</v>
       </c>
-      <c r="AD1" s="95"/>
-      <c r="AE1" s="95"/>
-      <c r="AF1" s="95"/>
-      <c r="AG1" s="95"/>
-      <c r="AH1" s="95"/>
-      <c r="AI1" s="95"/>
-      <c r="AJ1" s="95"/>
-      <c r="AK1" s="95"/>
-      <c r="AL1" s="95"/>
-      <c r="AM1" s="95"/>
-      <c r="AN1" s="96"/>
-      <c r="AO1" s="97">
+      <c r="AD1" s="103"/>
+      <c r="AE1" s="103"/>
+      <c r="AF1" s="103"/>
+      <c r="AG1" s="103"/>
+      <c r="AH1" s="103"/>
+      <c r="AI1" s="103"/>
+      <c r="AJ1" s="103"/>
+      <c r="AK1" s="103"/>
+      <c r="AL1" s="103"/>
+      <c r="AM1" s="103"/>
+      <c r="AN1" s="104"/>
+      <c r="AO1" s="105">
         <v>2025</v>
       </c>
-      <c r="AP1" s="98"/>
-      <c r="AQ1" s="98"/>
-      <c r="AR1" s="98"/>
-      <c r="AS1" s="98"/>
-      <c r="AT1" s="98"/>
-      <c r="AU1" s="98"/>
-      <c r="AV1" s="98"/>
-      <c r="AW1" s="98"/>
-      <c r="AX1" s="98"/>
-      <c r="AY1" s="98"/>
-      <c r="AZ1" s="99"/>
-      <c r="BA1" s="100">
+      <c r="AP1" s="106"/>
+      <c r="AQ1" s="106"/>
+      <c r="AR1" s="106"/>
+      <c r="AS1" s="106"/>
+      <c r="AT1" s="106"/>
+      <c r="AU1" s="106"/>
+      <c r="AV1" s="106"/>
+      <c r="AW1" s="106"/>
+      <c r="AX1" s="106"/>
+      <c r="AY1" s="106"/>
+      <c r="AZ1" s="107"/>
+      <c r="BA1" s="108">
         <v>2026</v>
       </c>
-      <c r="BB1" s="100"/>
-      <c r="BC1" s="100"/>
-      <c r="BD1" s="100"/>
-      <c r="BE1" s="100"/>
-      <c r="BF1" s="100"/>
-      <c r="BG1" s="100"/>
-      <c r="BH1" s="100"/>
-      <c r="BI1" s="100"/>
-      <c r="BJ1" s="100"/>
-      <c r="BK1" s="100"/>
-      <c r="BL1" s="100"/>
+      <c r="BB1" s="108"/>
+      <c r="BC1" s="108"/>
+      <c r="BD1" s="108"/>
+      <c r="BE1" s="108"/>
+      <c r="BF1" s="108"/>
+      <c r="BG1" s="108"/>
+      <c r="BH1" s="108"/>
+      <c r="BI1" s="108"/>
+      <c r="BJ1" s="108"/>
+      <c r="BK1" s="108"/>
+      <c r="BL1" s="108"/>
     </row>
     <row r="2" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">

--- a/Planning d'intervention Maintenance CENSURE POUR TESTS.xlsx
+++ b/Planning d'intervention Maintenance CENSURE POUR TESTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1 Dossiers de Nicolas\Etudes EPF\Swish\Code\BotMail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37109655-2E00-4BCC-AAD0-ED85958CB9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57B2CCE-E8C8-41CA-9B37-E5CECD356323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="3ObO7lhbQChKT/Xtw/BLX4lNVq3Cq/6ocFooM4xCcLvSYtChDMF3f+oZspex3tZgOhs11Rh4Nr9DG6JRfkN4cg==" workbookSaltValue="lNSrrGt5psh5kPE8rpctDg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{16EB6ED4-2E25-4642-8164-370FEBA71D91}"/>
@@ -1906,29 +1906,34 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K39" sqref="K39"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W5" sqref="W5:W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24" style="86" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" style="86" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" style="86" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" style="86" customWidth="1"/>
     <col min="3" max="3" width="19.88671875" style="86" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" style="86" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.44140625" style="86" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" style="86" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28" style="86" customWidth="1"/>
-    <col min="8" max="8" width="18" style="86" customWidth="1"/>
-    <col min="9" max="9" width="40.109375" style="86" customWidth="1"/>
-    <col min="10" max="12" width="24.6640625" style="86" customWidth="1"/>
-    <col min="13" max="14" width="24.6640625" style="87" customWidth="1"/>
-    <col min="15" max="15" width="21.33203125" style="88" customWidth="1"/>
-    <col min="16" max="17" width="21.33203125" style="89" customWidth="1"/>
-    <col min="18" max="18" width="20.44140625" style="90" customWidth="1"/>
-    <col min="19" max="20" width="20.44140625" style="91" customWidth="1"/>
-    <col min="21" max="21" width="20.88671875" style="92" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="86" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" style="86" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" style="86" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" style="86" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" style="86" customWidth="1"/>
+    <col min="9" max="9" width="23.21875" style="86" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" style="86" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" style="86" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" style="86" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" style="87" customWidth="1"/>
+    <col min="14" max="14" width="9.88671875" style="87" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" style="88" customWidth="1"/>
+    <col min="16" max="16" width="12.77734375" style="89" customWidth="1"/>
+    <col min="17" max="17" width="9.44140625" style="89" customWidth="1"/>
+    <col min="18" max="18" width="11.33203125" style="90" customWidth="1"/>
+    <col min="19" max="19" width="12.109375" style="91" customWidth="1"/>
+    <col min="20" max="20" width="9.77734375" style="91" customWidth="1"/>
+    <col min="21" max="21" width="11.77734375" style="92" customWidth="1"/>
     <col min="22" max="22" width="2.44140625" style="93" customWidth="1"/>
     <col min="23" max="16384" width="11.5546875" style="86"/>
   </cols>
@@ -8952,18 +8957,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8985,18 +8990,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5F11FFB-EF31-444D-8074-B41CB27BA11D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC99D9B8-395A-430E-937C-0EA8E9C71B29}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5F11FFB-EF31-444D-8074-B41CB27BA11D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>